--- a/SOFTDEV Files/Contingency-Plan_ADENICSY.xlsx
+++ b/SOFTDEV Files/Contingency-Plan_ADENICSY.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27109"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{E0D96186-7502-4207-A645-114309AE0FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74F54AF9-325A-4B33-9B92-D71AA2615588}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{60266284-AEC6-4F8C-B050-8E4905181822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36BF4081-5347-4A26-B946-CA940988079F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
-  <si>
-    <t>CONTINGENCY PLANNING</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+  <si>
+    <t>Contingency Planning for ADENICSY PROGMATIKS</t>
   </si>
   <si>
     <t>No.</t>
@@ -57,49 +57,28 @@
     <t>Status</t>
   </si>
   <si>
-    <t>PREPARED BY:                                                          CHECKED BY:                                                                  APPROVED BY:</t>
-  </si>
-  <si>
     <t>The Apelo Dental Clinic Management System (ADENICSY) would not synchronize the data/information of the patient being recorded if the internet connection is disrupted and/or lost during the process.</t>
   </si>
   <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Create a local storage backup from time to time in the clinic's computer which the system can use and update for the business transactions, when the internet is restored, the changes will be synced to the cloud server.</t>
+  </si>
+  <si>
+    <t>Development Team</t>
+  </si>
+  <si>
+    <t>1-2 Weeks</t>
+  </si>
+  <si>
+    <t>Have a local storage back up in the clinic's computer/s that can be saved and used to restore whem the internet connection is restored</t>
+  </si>
+  <si>
     <t>The information cannot be transferred/exchanged safely if the internet connection is lost and if there was a problem/issue that unexpectedly occurs with the router that connects the devices together.</t>
   </si>
   <si>
     <t>The data in the Apelo Dental Clinic Management System (ADENICSY) can be vulnerable with risks when it comes to new employees being hired since the core data, which is the patient’s recorded data, can be interacted by the employees.</t>
-  </si>
-  <si>
-    <t>The system may not work well with current hardware and software systems, which could lead to errors and delays in the system.</t>
-  </si>
-  <si>
-    <t>There is a chance that there won't be enough resources available to finish the project on schedule, which will cause delays and cost overruns.</t>
-  </si>
-  <si>
-    <t>Data breaches and cyberattacks pose a threat that could compromise sensitive data.</t>
-  </si>
-  <si>
-    <t>Certain functions of the system may have a error or does not respond accordingly</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Double checking of functions in the system to make sure they work properly and accordingly.</t>
-  </si>
-  <si>
-    <t>Lessened to the best of the team's ability</t>
-  </si>
-  <si>
-    <t>Optimize the system and make sure it is compatible to work on current hardware.</t>
-  </si>
-  <si>
-    <t>Develop as much as the team can, and present the requested working functions of the system.</t>
-  </si>
-  <si>
-    <t>Create a local storage backup from time to time in the clinic's computer which the system can use and update for the business transactions, when the internet is restored, the changes will be synced to the cloud server.</t>
-  </si>
-  <si>
-    <t>To Be Done</t>
   </si>
   <si>
     <t>To Be Done When Deployed and Currently Used by Client</t>
@@ -112,48 +91,75 @@
 Development Team (For training the Clinic Staff on how the System functions)</t>
   </si>
   <si>
-    <t>Development Team</t>
-  </si>
-  <si>
-    <t>Have a local storage back up in the clinic's computer/s that can be saved and used to restore whem the internet connection is restored</t>
+    <t>1 Week</t>
   </si>
   <si>
     <t>Successfully taught the Staff the functions of the System</t>
   </si>
   <si>
+    <t>The system may not work well with current hardware and software systems, which could lead to errors and delays in the system.</t>
+  </si>
+  <si>
+    <t>Optimize the system and make sure it is compatible to work on current hardware.</t>
+  </si>
+  <si>
     <t>Optimized enough to be compatible with the current hardware</t>
   </si>
   <si>
+    <t>There is a chance that there won't be enough resources available to finish the project on schedule, which will cause delays and cost overruns.</t>
+  </si>
+  <si>
+    <t>Develop as much as the team can, and present the requested working functions of the system.</t>
+  </si>
+  <si>
+    <t>2-3 Weeks</t>
+  </si>
+  <si>
     <t>Working and Necessary Functions are successfully developed</t>
   </si>
   <si>
-    <t>1-2 Weeks</t>
-  </si>
-  <si>
-    <t>1 Week</t>
-  </si>
-  <si>
-    <t>2-3 Weeks</t>
+    <t>Data breaches and cyberattacks pose a threat that could compromise sensitive data.</t>
+  </si>
+  <si>
+    <t>To Be Done</t>
   </si>
   <si>
     <t>Ensure that the computer in the clinic that is used to access the website has an anti-virus, and is not used to access random websites that could potentially harm the user and gain access to the sensitive information</t>
-  </si>
-  <si>
-    <t>1 Weeks</t>
-  </si>
-  <si>
-    <t>Confirm that the computer in the clinic does not contain malicious files and is primarily used for Clinic purposes.</t>
   </si>
   <si>
     <t>Development Team (Checking of the device if it has malicious activity and/or contains potentially harmful viruses)
 Staff (Ensuring that the computer/s in the clinic are kept safe and out of access from strangers/non-staff members)</t>
+  </si>
+  <si>
+    <t>Confirm that the computer in the clinic does not contain malicious files and is primarily used for Clinic purposes.</t>
+  </si>
+  <si>
+    <t>Certain functions of the system may have a error or does not respond accordingly</t>
+  </si>
+  <si>
+    <t>Double checking of functions in the system to make sure they work properly and accordingly.</t>
+  </si>
+  <si>
+    <t>Lessened to the best of the team's ability</t>
+  </si>
+  <si>
+    <t>Before donation/implementation, load test at least 100 users.</t>
+  </si>
+  <si>
+    <t>Load test 100 users using Apache JMeter since it is open-source. An alternative to this for cloud load testing is Blazemeter.</t>
+  </si>
+  <si>
+    <t>Gather resources to load test and properly store the recorded data.</t>
+  </si>
+  <si>
+    <t>PREPARED BY:                                                          CHECKED BY:                                                                  APPROVED BY:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -329,12 +335,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -347,6 +347,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -368,6 +374,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -392,10 +401,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -663,11 +668,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
@@ -1436,7 +1441,7 @@
     <col min="16129" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" ht="26.25">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1452,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8">
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -1456,58 +1461,58 @@
       <c r="G3" s="16"/>
       <c r="H3" s="17"/>
     </row>
-    <row r="4" spans="2:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:8" s="4" customFormat="1" ht="28.5">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="6" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
+    <row r="5" spans="2:8" s="6" customFormat="1" ht="114.75">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="18" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="6" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
+    <row r="6" spans="2:8" s="6" customFormat="1" ht="114.75">
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>10</v>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -1515,205 +1520,195 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="2:8" s="6" customFormat="1" ht="153" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+    <row r="7" spans="2:8" s="6" customFormat="1" ht="153">
+      <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="6" customFormat="1" ht="63.75">
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="G8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="10" t="s">
+    </row>
+    <row r="9" spans="2:8" s="6" customFormat="1" ht="89.25">
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="F9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="6" customFormat="1" ht="178.5">
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="8" spans="2:8" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11" t="s">
+    <row r="11" spans="2:8" s="6" customFormat="1" ht="63.75">
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="H11" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" s="6" customFormat="1" ht="93" customHeight="1">
+      <c r="B12" s="20">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="9" spans="2:8" s="6" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
-        <v>5</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>30</v>
-      </c>
+    <row r="13" spans="2:8" s="6" customFormat="1" ht="12">
+      <c r="B13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
-    <row r="10" spans="2:8" s="6" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
-        <v>6</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>36</v>
-      </c>
+    <row r="14" spans="2:8" s="6" customFormat="1" ht="12">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
-    <row r="11" spans="2:8" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>18</v>
-      </c>
+    <row r="15" spans="2:8" s="6" customFormat="1" ht="12">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
-    <row r="12" spans="2:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+    <row r="16" spans="2:8" s="6" customFormat="1" ht="12">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
-    <row r="13" spans="2:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+    <row r="17" spans="2:8" s="6" customFormat="1" ht="12">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
-    <row r="14" spans="2:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="2:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="2:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="2:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="2:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="2:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="2:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="2:8" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" s="6" customFormat="1" ht="12"/>
+    <row r="19" spans="2:8" s="6" customFormat="1" ht="12"/>
+    <row r="20" spans="2:8" s="6" customFormat="1" ht="12"/>
+    <row r="21" spans="2:8" s="3" customFormat="1" ht="12">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1725,7 +1720,7 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B18:H20"/>
+    <mergeCell ref="B13:H15"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D5:D6"/>
@@ -1748,6 +1743,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d326c8bb-4afd-4bba-8c03-566e7f9285d5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007EC99457FF852C4494C42A6C664719D0" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="affdbf46269a3b9c33b03007f064dba8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d326c8bb-4afd-4bba-8c03-566e7f9285d5" xmlns:ns4="81a4985e-48d7-415e-8d15-8d26b5cd7248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a206779742153e13e154dc494547e237" ns3:_="" ns4:_="">
     <xsd:import namespace="d326c8bb-4afd-4bba-8c03-566e7f9285d5"/>
@@ -1982,54 +1985,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d326c8bb-4afd-4bba-8c03-566e7f9285d5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A01381F-BAEF-45B8-9327-5F80F297A60D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A01381F-BAEF-45B8-9327-5F80F297A60D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31F58E5-BB5C-4373-9364-9F02F567E527}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d326c8bb-4afd-4bba-8c03-566e7f9285d5"/>
-    <ds:schemaRef ds:uri="81a4985e-48d7-415e-8d15-8d26b5cd7248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8948AE-9483-4319-96A0-FC7AF69935BD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8948AE-9483-4319-96A0-FC7AF69935BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d326c8bb-4afd-4bba-8c03-566e7f9285d5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="81a4985e-48d7-415e-8d15-8d26b5cd7248"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31F58E5-BB5C-4373-9364-9F02F567E527}"/>
 </file>